--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4430" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4430" uniqueCount="520">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T11:05:59+00:00</t>
+    <t>2023-08-23T16:18:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -138,6 +138,10 @@
   </si>
   <si>
     <t>A ValueSet resource instance specifies a set of codes drawn from one or more code systems, intended for use in a particular context. Value sets link between [CodeSystem](http://hl7.org/fhir/R5/codesystem.html) definitions and their use in [coded elements](http://hl7.org/fhir/R5/terminologies.html).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cnl-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.exists() implies name.matches('^[A-Z]([A-Za-z0-9_]){1,254}$')}
+</t>
   </si>
   <si>
     <t>conformance.behavior,conformance.terminology</t>
@@ -2078,13 +2082,13 @@
         <v>35</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>35</v>
@@ -2092,10 +2096,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2106,7 +2110,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>35</v>
@@ -2115,19 +2119,19 @@
         <v>35</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2177,13 +2181,13 @@
         <v>35</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>35</v>
@@ -2203,10 +2207,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2217,7 +2221,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>35</v>
@@ -2226,16 +2230,16 @@
         <v>35</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2286,19 +2290,19 @@
         <v>35</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>35</v>
@@ -2312,10 +2316,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2326,28 +2330,28 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2397,19 +2401,19 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>35</v>
@@ -2423,10 +2427,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2437,7 +2441,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>35</v>
@@ -2449,16 +2453,16 @@
         <v>35</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2484,13 +2488,13 @@
         <v>35</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>35</v>
@@ -2508,19 +2512,19 @@
         <v>35</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>35</v>
@@ -2534,21 +2538,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>35</v>
@@ -2560,16 +2564,16 @@
         <v>35</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2619,25 +2623,25 @@
         <v>35</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>35</v>
@@ -2645,14 +2649,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2671,16 +2675,16 @@
         <v>35</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2730,7 +2734,7 @@
         <v>35</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -2739,7 +2743,7 @@
         <v>37</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>35</v>
@@ -2748,7 +2752,7 @@
         <v>35</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>35</v>
@@ -2756,14 +2760,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2782,16 +2786,16 @@
         <v>35</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2841,7 +2845,7 @@
         <v>35</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -2853,13 +2857,13 @@
         <v>35</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>35</v>
@@ -2867,14 +2871,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2887,25 +2891,25 @@
         <v>35</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>35</v>
@@ -2954,7 +2958,7 @@
         <v>35</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2966,13 +2970,13 @@
         <v>35</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>35</v>
@@ -2980,10 +2984,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2994,7 +2998,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>35</v>
@@ -3003,22 +3007,22 @@
         <v>35</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>35</v>
@@ -3067,25 +3071,25 @@
         <v>35</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>35</v>
@@ -3093,10 +3097,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3116,22 +3120,22 @@
         <v>35</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>35</v>
@@ -3180,7 +3184,7 @@
         <v>35</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -3192,24 +3196,24 @@
         <v>35</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3220,7 +3224,7 @@
         <v>36</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>35</v>
@@ -3229,19 +3233,19 @@
         <v>35</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3291,22 +3295,22 @@
         <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>35</v>
@@ -3317,10 +3321,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3331,7 +3335,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>35</v>
@@ -3340,19 +3344,19 @@
         <v>35</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3378,11 +3382,11 @@
         <v>35</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>35</v>
@@ -3400,19 +3404,19 @@
         <v>35</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>35</v>
@@ -3426,10 +3430,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3440,7 +3444,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>35</v>
@@ -3449,22 +3453,22 @@
         <v>35</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>35</v>
@@ -3513,19 +3517,19 @@
         <v>35</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>35</v>
@@ -3539,10 +3543,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3553,7 +3557,7 @@
         <v>36</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>35</v>
@@ -3562,19 +3566,19 @@
         <v>35</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3624,19 +3628,19 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>35</v>
@@ -3650,10 +3654,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3661,31 +3665,31 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3711,13 +3715,13 @@
         <v>35</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>35</v>
@@ -3735,22 +3739,22 @@
         <v>35</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>35</v>
@@ -3761,10 +3765,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3775,7 +3779,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>35</v>
@@ -3784,88 +3788,88 @@
         <v>35</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P17" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q17" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="P17" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q17" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="R17" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>146</v>
-      </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>35</v>
@@ -3876,21 +3880,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>35</v>
@@ -3899,19 +3903,19 @@
         <v>35</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3961,25 +3965,25 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>35</v>
@@ -3987,10 +3991,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4001,7 +4005,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>35</v>
@@ -4010,22 +4014,22 @@
         <v>35</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>35</v>
@@ -4074,22 +4078,22 @@
         <v>35</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>35</v>
@@ -4100,10 +4104,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4123,19 +4127,19 @@
         <v>35</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4185,7 +4189,7 @@
         <v>35</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
@@ -4197,7 +4201,7 @@
         <v>35</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>35</v>
@@ -4211,10 +4215,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4225,7 +4229,7 @@
         <v>36</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>35</v>
@@ -4237,16 +4241,16 @@
         <v>35</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4296,25 +4300,25 @@
         <v>35</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>35</v>
@@ -4322,10 +4326,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4345,22 +4349,22 @@
         <v>35</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>35</v>
@@ -4409,7 +4413,7 @@
         <v>35</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
@@ -4421,7 +4425,7 @@
         <v>35</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>35</v>
@@ -4435,10 +4439,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4458,19 +4462,19 @@
         <v>35</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4496,13 +4500,13 @@
         <v>35</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>35</v>
@@ -4520,7 +4524,7 @@
         <v>35</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
@@ -4532,7 +4536,7 @@
         <v>35</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>35</v>
@@ -4546,10 +4550,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4560,7 +4564,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>35</v>
@@ -4569,19 +4573,19 @@
         <v>35</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4631,19 +4635,19 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>35</v>
@@ -4657,10 +4661,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4671,7 +4675,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>35</v>
@@ -4683,16 +4687,16 @@
         <v>35</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4742,47 +4746,47 @@
         <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>35</v>
@@ -4794,19 +4798,19 @@
         <v>35</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>35</v>
@@ -4855,19 +4859,19 @@
         <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>35</v>
@@ -4876,15 +4880,15 @@
         <v>35</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4895,7 +4899,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>35</v>
@@ -4907,19 +4911,19 @@
         <v>35</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>35</v>
@@ -4968,19 +4972,19 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>35</v>
@@ -4994,10 +4998,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5008,7 +5012,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>35</v>
@@ -5020,16 +5024,16 @@
         <v>35</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5079,19 +5083,19 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>35</v>
@@ -5100,15 +5104,15 @@
         <v>35</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5119,7 +5123,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>35</v>
@@ -5131,19 +5135,19 @@
         <v>35</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>35</v>
@@ -5192,19 +5196,19 @@
         <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>35</v>
@@ -5213,15 +5217,15 @@
         <v>35</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5232,7 +5236,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>35</v>
@@ -5241,22 +5245,22 @@
         <v>35</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>35</v>
@@ -5305,19 +5309,19 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>35</v>
@@ -5326,15 +5330,15 @@
         <v>35</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5357,19 +5361,19 @@
         <v>35</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>35</v>
@@ -5394,11 +5398,11 @@
         <v>35</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>35</v>
@@ -5416,7 +5420,7 @@
         <v>35</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -5428,7 +5432,7 @@
         <v>35</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>35</v>
@@ -5442,10 +5446,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5468,13 +5472,13 @@
         <v>35</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5525,7 +5529,7 @@
         <v>35</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
@@ -5537,7 +5541,7 @@
         <v>35</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>35</v>
@@ -5551,10 +5555,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5577,13 +5581,13 @@
         <v>35</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5634,7 +5638,7 @@
         <v>35</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
@@ -5646,7 +5650,7 @@
         <v>35</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>35</v>
@@ -5660,10 +5664,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5686,16 +5690,16 @@
         <v>35</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5745,7 +5749,7 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -5757,7 +5761,7 @@
         <v>35</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>35</v>
@@ -5771,10 +5775,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5797,16 +5801,16 @@
         <v>35</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5856,7 +5860,7 @@
         <v>35</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
@@ -5868,7 +5872,7 @@
         <v>35</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>35</v>
@@ -5882,10 +5886,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5908,19 +5912,19 @@
         <v>35</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>35</v>
@@ -5969,7 +5973,7 @@
         <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
@@ -5981,7 +5985,7 @@
         <v>35</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>35</v>
@@ -5995,21 +5999,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>35</v>
@@ -6021,13 +6025,13 @@
         <v>35</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6078,19 +6082,19 @@
         <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>35</v>
@@ -6104,10 +6108,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6118,7 +6122,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>35</v>
@@ -6130,13 +6134,13 @@
         <v>35</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6187,16 +6191,16 @@
         <v>35</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>35</v>
@@ -6205,7 +6209,7 @@
         <v>35</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>35</v>
@@ -6213,14 +6217,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6239,16 +6243,16 @@
         <v>35</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6298,7 +6302,7 @@
         <v>35</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
@@ -6310,13 +6314,13 @@
         <v>35</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>35</v>
@@ -6324,14 +6328,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6344,25 +6348,25 @@
         <v>35</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>35</v>
@@ -6411,7 +6415,7 @@
         <v>35</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
@@ -6423,13 +6427,13 @@
         <v>35</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>35</v>
@@ -6437,10 +6441,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6451,7 +6455,7 @@
         <v>36</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>35</v>
@@ -6460,19 +6464,19 @@
         <v>35</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6522,22 +6526,22 @@
         <v>35</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>35</v>
@@ -6548,10 +6552,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6562,7 +6566,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>35</v>
@@ -6571,19 +6575,19 @@
         <v>35</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6633,19 +6637,19 @@
         <v>35</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>35</v>
@@ -6659,10 +6663,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6670,7 +6674,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>37</v>
@@ -6682,19 +6686,19 @@
         <v>35</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6744,10 +6748,10 @@
         <v>35</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>37</v>
@@ -6756,13 +6760,13 @@
         <v>35</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>35</v>
@@ -6770,10 +6774,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6784,7 +6788,7 @@
         <v>36</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>35</v>
@@ -6796,13 +6800,13 @@
         <v>35</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6853,16 +6857,16 @@
         <v>35</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>35</v>
@@ -6871,7 +6875,7 @@
         <v>35</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>35</v>
@@ -6879,10 +6883,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6905,13 +6909,13 @@
         <v>35</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6950,17 +6954,17 @@
         <v>35</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
@@ -6972,7 +6976,7 @@
         <v>35</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>35</v>
@@ -6986,13 +6990,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>35</v>
@@ -7002,7 +7006,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>35</v>
@@ -7014,13 +7018,13 @@
         <v>35</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7071,7 +7075,7 @@
         <v>35</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
@@ -7083,7 +7087,7 @@
         <v>35</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>35</v>
@@ -7097,14 +7101,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7117,25 +7121,25 @@
         <v>35</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>35</v>
@@ -7184,7 +7188,7 @@
         <v>35</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
@@ -7196,13 +7200,13 @@
         <v>35</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>35</v>
@@ -7210,10 +7214,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7224,7 +7228,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>35</v>
@@ -7233,19 +7237,19 @@
         <v>35</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7295,25 +7299,25 @@
         <v>35</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>35</v>
@@ -7321,10 +7325,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7335,7 +7339,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>35</v>
@@ -7344,19 +7348,19 @@
         <v>35</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7406,25 +7410,25 @@
         <v>35</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>35</v>
@@ -7432,10 +7436,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7458,16 +7462,16 @@
         <v>35</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7517,7 +7521,7 @@
         <v>35</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
@@ -7526,16 +7530,16 @@
         <v>37</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>35</v>
@@ -7543,10 +7547,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7557,7 +7561,7 @@
         <v>36</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>35</v>
@@ -7569,13 +7573,13 @@
         <v>35</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7626,16 +7630,16 @@
         <v>35</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>35</v>
@@ -7644,7 +7648,7 @@
         <v>35</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>35</v>
@@ -7652,14 +7656,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7678,16 +7682,16 @@
         <v>35</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7737,7 +7741,7 @@
         <v>35</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
@@ -7749,13 +7753,13 @@
         <v>35</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>35</v>
@@ -7763,14 +7767,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7783,25 +7787,25 @@
         <v>35</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>35</v>
@@ -7850,7 +7854,7 @@
         <v>35</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
@@ -7862,13 +7866,13 @@
         <v>35</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>35</v>
@@ -7876,10 +7880,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7887,10 +7891,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>35</v>
@@ -7902,16 +7906,16 @@
         <v>35</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7961,25 +7965,25 @@
         <v>35</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>35</v>
@@ -7987,10 +7991,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8001,7 +8005,7 @@
         <v>36</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>35</v>
@@ -8013,16 +8017,16 @@
         <v>35</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8072,25 +8076,25 @@
         <v>35</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>35</v>
@@ -8098,10 +8102,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8124,16 +8128,16 @@
         <v>35</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8183,7 +8187,7 @@
         <v>35</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
@@ -8195,7 +8199,7 @@
         <v>35</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>35</v>
@@ -8209,10 +8213,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8223,7 +8227,7 @@
         <v>36</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>35</v>
@@ -8235,13 +8239,13 @@
         <v>35</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8292,16 +8296,16 @@
         <v>35</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>35</v>
@@ -8310,7 +8314,7 @@
         <v>35</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>35</v>
@@ -8318,14 +8322,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8344,16 +8348,16 @@
         <v>35</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8403,7 +8407,7 @@
         <v>35</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -8415,13 +8419,13 @@
         <v>35</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>35</v>
@@ -8429,14 +8433,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8449,25 +8453,25 @@
         <v>35</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>35</v>
@@ -8516,7 +8520,7 @@
         <v>35</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
@@ -8528,13 +8532,13 @@
         <v>35</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>35</v>
@@ -8542,10 +8546,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8556,7 +8560,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>35</v>
@@ -8568,16 +8572,16 @@
         <v>35</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8603,13 +8607,13 @@
         <v>35</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>35</v>
@@ -8627,19 +8631,19 @@
         <v>35</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>35</v>
@@ -8653,10 +8657,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8667,7 +8671,7 @@
         <v>36</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>35</v>
@@ -8679,16 +8683,16 @@
         <v>35</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8714,13 +8718,13 @@
         <v>35</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>35</v>
@@ -8738,19 +8742,19 @@
         <v>35</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>35</v>
@@ -8764,10 +8768,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8790,16 +8794,16 @@
         <v>35</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8825,13 +8829,13 @@
         <v>35</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>35</v>
@@ -8849,7 +8853,7 @@
         <v>35</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
@@ -8858,10 +8862,10 @@
         <v>37</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>35</v>
@@ -8875,10 +8879,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8886,10 +8890,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>35</v>
@@ -8901,13 +8905,13 @@
         <v>35</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8958,19 +8962,19 @@
         <v>35</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>35</v>
@@ -8984,10 +8988,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9007,19 +9011,19 @@
         <v>35</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9069,7 +9073,7 @@
         <v>35</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>36</v>
@@ -9078,16 +9082,16 @@
         <v>37</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>35</v>
@@ -9095,10 +9099,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9109,7 +9113,7 @@
         <v>36</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>35</v>
@@ -9121,13 +9125,13 @@
         <v>35</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9178,16 +9182,16 @@
         <v>35</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>35</v>
@@ -9196,7 +9200,7 @@
         <v>35</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>35</v>
@@ -9204,14 +9208,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9230,16 +9234,16 @@
         <v>35</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9289,7 +9293,7 @@
         <v>35</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>36</v>
@@ -9301,13 +9305,13 @@
         <v>35</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>35</v>
@@ -9315,14 +9319,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9335,25 +9339,25 @@
         <v>35</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>35</v>
@@ -9402,7 +9406,7 @@
         <v>35</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
@@ -9414,13 +9418,13 @@
         <v>35</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>35</v>
@@ -9428,10 +9432,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9439,10 +9443,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>35</v>
@@ -9451,16 +9455,16 @@
         <v>35</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9511,25 +9515,25 @@
         <v>35</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>35</v>
@@ -9537,10 +9541,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9548,10 +9552,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>35</v>
@@ -9560,19 +9564,19 @@
         <v>35</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9598,13 +9602,13 @@
         <v>35</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>35</v>
@@ -9622,25 +9626,25 @@
         <v>35</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>35</v>
@@ -9648,10 +9652,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9659,10 +9663,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>35</v>
@@ -9671,19 +9675,19 @@
         <v>35</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9733,25 +9737,25 @@
         <v>35</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>35</v>
@@ -9759,10 +9763,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9782,19 +9786,19 @@
         <v>35</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9844,7 +9848,7 @@
         <v>35</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>36</v>
@@ -9853,16 +9857,16 @@
         <v>37</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>35</v>
@@ -9870,10 +9874,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9884,7 +9888,7 @@
         <v>36</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>35</v>
@@ -9896,13 +9900,13 @@
         <v>35</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9953,25 +9957,25 @@
         <v>35</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>35</v>
@@ -9979,10 +9983,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10008,13 +10012,13 @@
         <v>38</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10064,7 +10068,7 @@
         <v>35</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>36</v>
@@ -10076,13 +10080,13 @@
         <v>35</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>35</v>
@@ -10090,10 +10094,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10116,16 +10120,16 @@
         <v>35</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10175,7 +10179,7 @@
         <v>35</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>36</v>
@@ -10187,7 +10191,7 @@
         <v>35</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>35</v>
@@ -10201,10 +10205,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10215,7 +10219,7 @@
         <v>36</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>35</v>
@@ -10227,16 +10231,16 @@
         <v>35</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10286,19 +10290,19 @@
         <v>35</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>35</v>
@@ -10312,10 +10316,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10326,7 +10330,7 @@
         <v>36</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>35</v>
@@ -10338,13 +10342,13 @@
         <v>35</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10395,16 +10399,16 @@
         <v>35</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>35</v>
@@ -10413,7 +10417,7 @@
         <v>35</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>35</v>
@@ -10421,14 +10425,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10447,16 +10451,16 @@
         <v>35</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10506,7 +10510,7 @@
         <v>35</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>36</v>
@@ -10518,13 +10522,13 @@
         <v>35</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>35</v>
@@ -10532,14 +10536,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10552,25 +10556,25 @@
         <v>35</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>35</v>
@@ -10619,7 +10623,7 @@
         <v>35</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>36</v>
@@ -10631,13 +10635,13 @@
         <v>35</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>35</v>
@@ -10645,10 +10649,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10659,7 +10663,7 @@
         <v>36</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>35</v>
@@ -10671,16 +10675,16 @@
         <v>35</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10730,19 +10734,19 @@
         <v>35</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>35</v>
@@ -10756,10 +10760,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10770,7 +10774,7 @@
         <v>36</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>35</v>
@@ -10782,16 +10786,16 @@
         <v>35</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10841,19 +10845,19 @@
         <v>35</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>35</v>
@@ -10867,10 +10871,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10878,10 +10882,10 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>35</v>
@@ -10893,16 +10897,16 @@
         <v>35</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -10952,19 +10956,19 @@
         <v>35</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>35</v>
@@ -10978,10 +10982,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10992,7 +10996,7 @@
         <v>36</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>35</v>
@@ -11004,16 +11008,16 @@
         <v>35</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11063,19 +11067,19 @@
         <v>35</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>35</v>
@@ -11089,10 +11093,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11103,7 +11107,7 @@
         <v>36</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>35</v>
@@ -11115,23 +11119,23 @@
         <v>35</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>35</v>
       </c>
       <c r="Q83" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="R83" t="s" s="2">
         <v>35</v>
@@ -11176,19 +11180,19 @@
         <v>35</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>35</v>
@@ -11202,10 +11206,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11228,16 +11232,16 @@
         <v>35</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11287,7 +11291,7 @@
         <v>35</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>36</v>
@@ -11299,7 +11303,7 @@
         <v>35</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>35</v>
@@ -11313,10 +11317,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11327,7 +11331,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>35</v>
@@ -11339,13 +11343,13 @@
         <v>35</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11396,16 +11400,16 @@
         <v>35</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>35</v>
@@ -11414,7 +11418,7 @@
         <v>35</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>35</v>
@@ -11422,14 +11426,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -11448,16 +11452,16 @@
         <v>35</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11507,7 +11511,7 @@
         <v>35</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>36</v>
@@ -11519,13 +11523,13 @@
         <v>35</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>35</v>
@@ -11533,14 +11537,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -11553,25 +11557,25 @@
         <v>35</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>35</v>
@@ -11620,7 +11624,7 @@
         <v>35</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>36</v>
@@ -11632,13 +11636,13 @@
         <v>35</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>35</v>
@@ -11646,10 +11650,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11657,10 +11661,10 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>35</v>
@@ -11672,16 +11676,16 @@
         <v>35</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -11731,19 +11735,19 @@
         <v>35</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>35</v>
@@ -11757,10 +11761,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11771,7 +11775,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>35</v>
@@ -11783,13 +11787,13 @@
         <v>35</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11840,19 +11844,19 @@
         <v>35</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>35</v>
@@ -11866,10 +11870,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11892,13 +11896,13 @@
         <v>35</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11949,7 +11953,7 @@
         <v>35</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>36</v>
@@ -11961,7 +11965,7 @@
         <v>35</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>35</v>
@@ -11975,10 +11979,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11989,7 +11993,7 @@
         <v>36</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>35</v>
@@ -12001,13 +12005,13 @@
         <v>35</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12058,16 +12062,16 @@
         <v>35</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>35</v>
@@ -12076,7 +12080,7 @@
         <v>35</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>35</v>
@@ -12084,14 +12088,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12110,16 +12114,16 @@
         <v>35</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12169,7 +12173,7 @@
         <v>35</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>36</v>
@@ -12181,13 +12185,13 @@
         <v>35</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>35</v>
@@ -12195,14 +12199,14 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -12215,25 +12219,25 @@
         <v>35</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>35</v>
@@ -12282,7 +12286,7 @@
         <v>35</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>36</v>
@@ -12294,13 +12298,13 @@
         <v>35</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>35</v>
@@ -12308,10 +12312,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12319,10 +12323,10 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>35</v>
@@ -12334,13 +12338,13 @@
         <v>35</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12391,19 +12395,19 @@
         <v>35</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>35</v>
@@ -12417,10 +12421,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12431,7 +12435,7 @@
         <v>36</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>35</v>
@@ -12443,13 +12447,13 @@
         <v>35</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12500,19 +12504,19 @@
         <v>35</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>35</v>
@@ -12526,10 +12530,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12552,13 +12556,13 @@
         <v>35</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -12609,7 +12613,7 @@
         <v>35</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>36</v>
@@ -12621,7 +12625,7 @@
         <v>35</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>35</v>
@@ -12635,10 +12639,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12649,7 +12653,7 @@
         <v>36</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>35</v>
@@ -12661,13 +12665,13 @@
         <v>35</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12718,16 +12722,16 @@
         <v>35</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>35</v>
@@ -12736,7 +12740,7 @@
         <v>35</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>35</v>
@@ -12744,10 +12748,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12770,13 +12774,13 @@
         <v>35</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12815,17 +12819,17 @@
         <v>35</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>36</v>
@@ -12837,7 +12841,7 @@
         <v>35</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>35</v>
@@ -12851,13 +12855,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B99" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="B99" t="s" s="2">
-        <v>447</v>
-      </c>
       <c r="C99" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>35</v>
@@ -12867,7 +12871,7 @@
         <v>36</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>35</v>
@@ -12879,13 +12883,13 @@
         <v>35</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12936,7 +12940,7 @@
         <v>35</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>36</v>
@@ -12948,7 +12952,7 @@
         <v>35</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>35</v>
@@ -12962,14 +12966,14 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -12982,25 +12986,25 @@
         <v>35</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>35</v>
@@ -13049,7 +13053,7 @@
         <v>35</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>36</v>
@@ -13061,13 +13065,13 @@
         <v>35</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>35</v>
@@ -13075,10 +13079,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13089,7 +13093,7 @@
         <v>36</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>35</v>
@@ -13101,13 +13105,13 @@
         <v>35</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13158,19 +13162,19 @@
         <v>35</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>35</v>
@@ -13184,10 +13188,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13198,7 +13202,7 @@
         <v>36</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>35</v>
@@ -13210,23 +13214,23 @@
         <v>35</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>35</v>
       </c>
       <c r="Q102" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="R102" t="s" s="2">
         <v>35</v>
@@ -13271,19 +13275,19 @@
         <v>35</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>35</v>
@@ -13297,10 +13301,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13311,7 +13315,7 @@
         <v>36</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>35</v>
@@ -13323,16 +13327,16 @@
         <v>35</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -13382,19 +13386,19 @@
         <v>35</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>35</v>
@@ -13408,10 +13412,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13422,7 +13426,7 @@
         <v>36</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>35</v>
@@ -13434,16 +13438,16 @@
         <v>35</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -13493,19 +13497,19 @@
         <v>35</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>35</v>
@@ -13519,10 +13523,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13533,7 +13537,7 @@
         <v>36</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>35</v>
@@ -13545,13 +13549,13 @@
         <v>35</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -13602,19 +13606,19 @@
         <v>35</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>35</v>
@@ -13628,10 +13632,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13642,7 +13646,7 @@
         <v>36</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>35</v>
@@ -13654,13 +13658,13 @@
         <v>35</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -13711,19 +13715,19 @@
         <v>35</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>35</v>
@@ -13737,10 +13741,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13766,13 +13770,13 @@
         <v>38</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -13822,7 +13826,7 @@
         <v>35</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>36</v>
@@ -13834,7 +13838,7 @@
         <v>35</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>35</v>
@@ -13848,10 +13852,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13874,13 +13878,13 @@
         <v>35</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -13931,7 +13935,7 @@
         <v>35</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>36</v>
@@ -13943,7 +13947,7 @@
         <v>35</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>35</v>
@@ -13957,10 +13961,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13971,7 +13975,7 @@
         <v>36</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>35</v>
@@ -13983,13 +13987,13 @@
         <v>35</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -14040,16 +14044,16 @@
         <v>35</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>35</v>
@@ -14058,7 +14062,7 @@
         <v>35</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>35</v>
@@ -14066,14 +14070,14 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -14092,16 +14096,16 @@
         <v>35</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -14151,7 +14155,7 @@
         <v>35</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>36</v>
@@ -14163,13 +14167,13 @@
         <v>35</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>35</v>
@@ -14177,14 +14181,14 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -14197,25 +14201,25 @@
         <v>35</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>35</v>
@@ -14264,7 +14268,7 @@
         <v>35</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>36</v>
@@ -14276,13 +14280,13 @@
         <v>35</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>35</v>
@@ -14290,10 +14294,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14301,10 +14305,10 @@
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>35</v>
@@ -14316,13 +14320,13 @@
         <v>35</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -14373,19 +14377,19 @@
         <v>35</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>35</v>
@@ -14399,10 +14403,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14410,10 +14414,10 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>35</v>
@@ -14425,13 +14429,13 @@
         <v>35</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -14482,19 +14486,19 @@
         <v>35</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>35</v>
@@ -14508,10 +14512,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14534,13 +14538,13 @@
         <v>35</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -14591,7 +14595,7 @@
         <v>35</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>36</v>
@@ -14603,7 +14607,7 @@
         <v>35</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>35</v>
@@ -14617,10 +14621,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14631,7 +14635,7 @@
         <v>36</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>35</v>
@@ -14643,13 +14647,13 @@
         <v>35</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -14700,16 +14704,16 @@
         <v>35</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>35</v>
@@ -14718,7 +14722,7 @@
         <v>35</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>35</v>
@@ -14726,14 +14730,14 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -14752,16 +14756,16 @@
         <v>35</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -14811,7 +14815,7 @@
         <v>35</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>36</v>
@@ -14823,13 +14827,13 @@
         <v>35</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>35</v>
@@ -14837,14 +14841,14 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -14857,25 +14861,25 @@
         <v>35</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>35</v>
@@ -14924,7 +14928,7 @@
         <v>35</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>36</v>
@@ -14936,13 +14940,13 @@
         <v>35</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>35</v>
@@ -14950,10 +14954,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -14961,10 +14965,10 @@
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>35</v>
@@ -14976,13 +14980,13 @@
         <v>35</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -15033,19 +15037,19 @@
         <v>35</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>35</v>
@@ -15059,10 +15063,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15070,10 +15074,10 @@
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>35</v>
@@ -15085,13 +15089,13 @@
         <v>35</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15142,19 +15146,19 @@
         <v>35</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>35</v>
@@ -15168,10 +15172,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15197,13 +15201,13 @@
         <v>38</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -15253,7 +15257,7 @@
         <v>35</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>36</v>
@@ -15265,7 +15269,7 @@
         <v>35</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>35</v>
@@ -15279,10 +15283,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -15293,7 +15297,7 @@
         <v>36</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>35</v>
@@ -15305,13 +15309,13 @@
         <v>35</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -15362,19 +15366,19 @@
         <v>35</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>35</v>
@@ -15388,10 +15392,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15402,7 +15406,7 @@
         <v>36</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>35</v>
@@ -15414,13 +15418,13 @@
         <v>35</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -15471,16 +15475,16 @@
         <v>35</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>35</v>
@@ -15489,7 +15493,7 @@
         <v>35</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>35</v>
@@ -15497,14 +15501,14 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -15523,16 +15527,16 @@
         <v>35</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -15582,7 +15586,7 @@
         <v>35</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>36</v>
@@ -15594,13 +15598,13 @@
         <v>35</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>35</v>
@@ -15608,14 +15612,14 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
@@ -15628,25 +15632,25 @@
         <v>35</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>35</v>
@@ -15695,7 +15699,7 @@
         <v>35</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>36</v>
@@ -15707,13 +15711,13 @@
         <v>35</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>35</v>
@@ -15721,10 +15725,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15735,7 +15739,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>35</v>
@@ -15747,13 +15751,13 @@
         <v>35</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -15804,25 +15808,25 @@
         <v>35</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>35</v>
@@ -15830,10 +15834,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15844,7 +15848,7 @@
         <v>36</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>35</v>
@@ -15856,13 +15860,13 @@
         <v>35</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -15913,25 +15917,25 @@
         <v>35</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>35</v>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T16:18:46+00:00</t>
+    <t>2023-09-11T14:36:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-11T14:36:20+00:00</t>
+    <t>2023-09-21T13:09:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-21T13:09:16+00:00</t>
+    <t>2023-09-28T19:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-28T19:00:02+00:00</t>
+    <t>2023-10-02T12:13:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-02T12:13:21+00:00</t>
+    <t>2023-10-04T08:03:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T08:03:23+00:00</t>
+    <t>2023-10-05T15:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>technikum-wien-treml</t>
+    <t>The Linked Care Consortium</t>
   </si>
   <si>
     <t>Contact</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T15:17:50+00:00</t>
+    <t>2023-10-10T19:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T19:35:45+00:00</t>
+    <t>2023-10-10T19:44:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T19:44:47+00:00</t>
+    <t>2023-10-11T18:07:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11T18:07:13+00:00</t>
+    <t>2023-10-12T12:56:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T12:56:35+00:00</t>
+    <t>2023-10-12T14:17:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T14:17:28+00:00</t>
+    <t>2023-10-12T18:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T18:56:25+00:00</t>
+    <t>2023-10-16T11:32:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T11:32:34+00:00</t>
+    <t>2023-10-16T15:04:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T15:04:26+00:00</t>
+    <t>2023-10-17T07:36:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T07:36:35+00:00</t>
+    <t>2023-10-18T09:10:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T09:10:45+00:00</t>
+    <t>2023-10-18T09:59:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T09:59:58+00:00</t>
+    <t>2023-10-30T06:51:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T06:51:40+00:00</t>
+    <t>2023-10-30T14:50:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T14:50:06+00:00</t>
+    <t>2023-10-31T07:29:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.2</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T07:29:19+00:00</t>
+    <t>2023-11-02T14:53:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T14:53:48+00:00</t>
+    <t>2023-11-02T15:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T15:29:05+00:00</t>
+    <t>2023-11-02T16:07:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T16:07:15+00:00</t>
+    <t>2023-11-02T16:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T16:13:26+00:00</t>
+    <t>2023-11-06T17:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T13:21:24+00:00</t>
+    <t>2023-11-13T14:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T14:25:45+00:00</t>
+    <t>2023-11-13T15:09:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T15:09:52+00:00</t>
+    <t>2023-11-13T17:03:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T17:03:00+00:00</t>
+    <t>2023-11-14T19:51:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-14T19:51:51+00:00</t>
+    <t>2023-11-28T16:40:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-28T16:40:15+00:00</t>
+    <t>2023-11-29T13:44:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T13:44:06+00:00</t>
+    <t>2023-11-29T14:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T14:01:28+00:00</t>
+    <t>2023-11-29T14:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T14:08:43+00:00</t>
+    <t>2023-11-29T14:14:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
